--- a/results/MVSE/acm/MVSE_acm<l03><NCEK>88.62.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l03><NCEK>88.62.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>acm</t>
@@ -592,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_58_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -608,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>acm</t>
@@ -661,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_33_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -734,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_51_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -807,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -823,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>acm</t>
@@ -876,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_17_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -949,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_30_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -965,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1018,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_59_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1034,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1087,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1160,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_48_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1176,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1229,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_16_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1245,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1298,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_32_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1314,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1344,7 +1398,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>4096</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
@@ -1440,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_10_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1456,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1509,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_05_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1525,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1578,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_50_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1594,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1647,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_37_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1720,7 +1796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_27_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1736,7 +1814,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1789,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_15_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
